--- a/simple.xlsx
+++ b/simple.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12360"/>
+    <workbookView windowWidth="23550" windowHeight="12360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,10 +30,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -52,7 +52,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -67,7 +67,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -81,6 +120,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -90,33 +161,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -128,38 +175,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,22 +187,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -197,49 +197,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -251,31 +323,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -287,97 +341,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,15 +409,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -433,6 +424,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -444,6 +444,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -477,101 +488,90 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -580,58 +580,58 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -701,6 +701,848 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$1:$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>正面</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>负面</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>中立</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$B$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="564438584"/>
+        <c:axId val="895079929"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="564438584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="895079929"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="895079929"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="564438584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="6604000" y="2324100"/>
+        <a:ext cx="4572000" cy="2743200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -996,5 +1838,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>